--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1279DA46-3495-0545-B1F9-4D5D5A4D14B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FBC04E-7B6F-E249-A418-6903B192F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15960" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="57">
   <si>
     <t>Study</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>20200301</t>
+  </si>
+  <si>
+    <t>This allows only for 3 month look back what about 6 months? Should i change the start_coverage?</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,6 +641,9 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FBC04E-7B6F-E249-A418-6903B192F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2254740-461B-4942-A317-8A6D19AA1FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15960" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="27640" windowHeight="15960" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="58">
   <si>
     <t>Study</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>This allows only for 3 month look back what about 6 months? Should i change the start_coverage?</t>
+  </si>
+  <si>
+    <t>20190229</t>
   </si>
 </sst>
 </file>
@@ -576,8 +579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA196AF0-491D-7F42-B606-416672B8A93A}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,7 +907,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
@@ -930,7 +934,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
@@ -957,7 +961,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
@@ -984,7 +988,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
@@ -1011,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
@@ -1038,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
@@ -1173,7 +1177,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="0"/>
@@ -1200,7 +1204,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
@@ -1279,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>52</v>
@@ -1306,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>51</v>

--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E47A2B-95E6-3442-B4C8-49451381C301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F6AEE2-CD48-FC43-AF8C-8914091C3049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13140" windowHeight="16420" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="52">
   <si>
     <t>Study</t>
   </si>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -269,6 +269,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +589,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A31" sqref="A31:XFD31"/>
+      <selection pane="topRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1034,23 +1036,25 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="9">
         <f>5*360.25</f>
         <v>1801.25</v>
       </c>
@@ -1059,24 +1063,26 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" ref="G19:G24" si="2">5*360.25</f>
+      <c r="G19" s="9">
+        <f t="shared" ref="G19" si="2">5*360.25</f>
         <v>1801.25</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1084,16 +1090,18 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1109,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G19:G24" si="3">5*360.25</f>
         <v>1801.25</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1109,16 +1117,18 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1126,7 +1136,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1801.25</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1143,15 +1153,17 @@
       <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1801.25</v>
       </c>
     </row>
@@ -1165,7 +1177,9 @@
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1173,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1801.25</v>
       </c>
     </row>
@@ -1187,15 +1201,17 @@
       <c r="C24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1801.25</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -1376,18 +1392,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1570,14 +1586,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1590,6 +1598,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F6AEE2-CD48-FC43-AF8C-8914091C3049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413563F1-F7A4-1746-8309-C7960084CE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13140" windowHeight="16420" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="47">
   <si>
     <t>Study</t>
   </si>
@@ -92,21 +92,12 @@
     <t>20050701</t>
   </si>
   <si>
-    <t>Why march in max preg date coverage?</t>
-  </si>
-  <si>
     <t>Why july in min preg date?</t>
   </si>
   <si>
-    <t>GePaRD</t>
-  </si>
-  <si>
     <t>20181231</t>
   </si>
   <si>
-    <t>USLO</t>
-  </si>
-  <si>
     <t>20090101</t>
   </si>
   <si>
@@ -152,24 +143,12 @@
     <t>Migraine</t>
   </si>
   <si>
-    <t>When optional lookback is 5 years will i remove this time from start_coverage meaning min_preg_date will become 20090101?</t>
-  </si>
-  <si>
-    <t>20180228</t>
-  </si>
-  <si>
     <t>Safety</t>
   </si>
   <si>
-    <t>Add end coverage or change max preg date</t>
-  </si>
-  <si>
     <t>20200301</t>
   </si>
   <si>
-    <t>This allows only for 3 month look back what about 6 months? Should i change the start_coverage?</t>
-  </si>
-  <si>
     <t>20080401</t>
   </si>
   <si>
@@ -192,13 +171,19 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>UOSL</t>
+  </si>
+  <si>
+    <t>The end coverage for EFFEMERIS is 2019 or 2020? This affect the max preg date also</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,13 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,18 +206,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -260,17 +232,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,11 +554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA196AF0-491D-7F42-B606-416672B8A93A}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E25" sqref="E25"/>
+      <selection pane="topRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,7 +567,7 @@
     <col min="2" max="2" width="11" style="1"/>
     <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.6640625" style="1" customWidth="1"/>
@@ -631,61 +600,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -697,10 +666,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -708,7 +677,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -720,10 +689,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -731,10 +700,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -743,21 +712,21 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -766,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -780,336 +749,331 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1">
+        <f>5*360.25</f>
+        <v>1801.25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11:G16" si="0">5*360.25</f>
+        <v>1801.25</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="1">
-        <f>5*360.25</f>
-        <v>1801.25</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>45</v>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12:G17" si="0">5*360.25</f>
+        <f t="shared" si="0"/>
         <v>1801.25</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>1801.25</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>1801.25</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1">
+        <f t="shared" ref="G15" si="1">5*360.25</f>
+        <v>1801.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>1801.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="H16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" ref="G16" si="1">5*360.25</f>
-        <v>1801.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="0"/>
-        <v>1801.25</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2">
         <f>5*360.25</f>
         <v>1801.25</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>38</v>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" ref="G18" si="2">5*360.25</f>
+        <v>1801.25</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="9">
-        <f t="shared" ref="G19" si="2">5*360.25</f>
+      <c r="F19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ref="G19:G23" si="3">5*360.25</f>
         <v>1801.25</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" ref="G19:G24" si="3">5*360.25</f>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
         <v>1801.25</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1117,126 +1081,122 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="3"/>
         <v>1801.25</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="3"/>
         <v>1801.25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="3"/>
         <v>1801.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="H23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="3"/>
-        <v>1801.25</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="5"/>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1244,13 +1204,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -1259,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1267,22 +1227,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1290,22 +1250,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1313,76 +1273,53 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="1">
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="5"/>
+      <c r="H30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1392,21 +1329,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004121B7B21A8E79498360E7D69C664CF8" ma:contentTypeVersion="6" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="50fa45a33d7dd66f36eed652322f7e85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1bb27bd4-d919-4cde-be8f-c8c01880f38f" xmlns:ns3="101111ff-a703-44f4-bedb-571a174d8990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1aa411700356cc8e21a865bb26eb38d3" ns2:_="" ns3:_="">
     <xsd:import namespace="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
@@ -1585,32 +1507,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1627,4 +1539,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413563F1-F7A4-1746-8309-C7960084CE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7788474-81D3-9448-AE23-03294CF440EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -240,6 +240,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +560,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I19" sqref="I19"/>
+      <selection pane="topRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,7 +571,7 @@
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="29" style="1" customWidth="1"/>
   </cols>
@@ -593,7 +595,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -622,7 +624,7 @@
       <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <v>0</v>
       </c>
     </row>
@@ -645,7 +647,7 @@
       <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -671,7 +673,7 @@
       <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>0</v>
       </c>
     </row>
@@ -694,7 +696,7 @@
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -717,7 +719,7 @@
       <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -743,7 +745,7 @@
       <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>0</v>
       </c>
     </row>
@@ -766,7 +768,7 @@
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>0</v>
       </c>
     </row>
@@ -789,7 +791,7 @@
       <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="8">
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -816,9 +818,9 @@
       <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="1">
-        <f>5*360.25</f>
-        <v>1801.25</v>
+      <c r="G10" s="7">
+        <f>5*365.25</f>
+        <v>1826.25</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>38</v>
@@ -843,9 +845,9 @@
       <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" ref="G11:G16" si="0">5*360.25</f>
-        <v>1801.25</v>
+      <c r="G11" s="7">
+        <f t="shared" ref="G11:G23" si="0">5*365.25</f>
+        <v>1826.25</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>39</v>
@@ -873,9 +875,9 @@
       <c r="F12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>1801.25</v>
+        <v>1826.25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -897,9 +899,9 @@
       <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>1801.25</v>
+        <v>1826.25</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>42</v>
@@ -924,9 +926,9 @@
       <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>1801.25</v>
+        <v>1826.25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -948,9 +950,9 @@
       <c r="F15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" ref="G15" si="1">5*360.25</f>
-        <v>1801.25</v>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>1826.25</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -972,9 +974,9 @@
       <c r="F16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>1801.25</v>
+        <v>1826.25</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>44</v>
@@ -1000,9 +1002,9 @@
       <c r="F17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="2">
-        <f>5*360.25</f>
-        <v>1801.25</v>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>1826.25</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1024,9 +1026,9 @@
       <c r="F18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="2">
-        <f t="shared" ref="G18" si="2">5*360.25</f>
-        <v>1801.25</v>
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
+        <v>1826.25</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1048,9 +1050,9 @@
       <c r="F19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" ref="G19:G23" si="3">5*360.25</f>
-        <v>1801.25</v>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>1826.25</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1072,9 +1074,9 @@
       <c r="F20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" si="3"/>
-        <v>1801.25</v>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>1826.25</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>18</v>
@@ -1099,9 +1101,9 @@
       <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="3"/>
-        <v>1801.25</v>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>1826.25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1123,9 +1125,9 @@
       <c r="F22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="3"/>
-        <v>1801.25</v>
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
+        <v>1826.25</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1147,9 +1149,9 @@
       <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="3"/>
-        <v>1801.25</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>1826.25</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>44</v>
@@ -1175,7 +1177,7 @@
       <c r="F24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1198,7 +1200,7 @@
       <c r="F25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1221,7 +1223,7 @@
       <c r="F26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1244,7 +1246,7 @@
       <c r="F27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1267,7 +1269,7 @@
       <c r="F28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1290,7 +1292,7 @@
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1313,7 +1315,7 @@
       <c r="F30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="8">
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">

--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uio-my.sharepoint.com/personal/verarm_uio_no/Documents/_Projects/IMIConcePTION_DP4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7788474-81D3-9448-AE23-03294CF440EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{551B175C-B82C-4A50-BE14-56564079B289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
+    <workbookView xWindow="2880" yWindow="2985" windowWidth="21600" windowHeight="12735" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="43">
   <si>
     <t>Study</t>
   </si>
@@ -89,12 +92,6 @@
     <t>EFFEMERIS</t>
   </si>
   <si>
-    <t>20050701</t>
-  </si>
-  <si>
-    <t>Why july in min preg date?</t>
-  </si>
-  <si>
     <t>20181231</t>
   </si>
   <si>
@@ -104,21 +101,12 @@
     <t>FISABIO</t>
   </si>
   <si>
-    <t>20110101</t>
-  </si>
-  <si>
     <t>20040101</t>
   </si>
   <si>
-    <t>20040701</t>
-  </si>
-  <si>
     <t>20080101</t>
   </si>
   <si>
-    <t>20100101</t>
-  </si>
-  <si>
     <t>GDM_and_PE</t>
   </si>
   <si>
@@ -137,9 +125,6 @@
     <t>20180301</t>
   </si>
   <si>
-    <t>20100401</t>
-  </si>
-  <si>
     <t>Migraine</t>
   </si>
   <si>
@@ -177,6 +162,12 @@
   </si>
   <si>
     <t>The end coverage for EFFEMERIS is 2019 or 2020? This affect the max preg date also</t>
+  </si>
+  <si>
+    <t>20130101</t>
+  </si>
+  <si>
+    <t>20140101</t>
   </si>
 </sst>
 </file>
@@ -232,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -242,6 +233,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,23 +554,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G23" sqref="G23"/>
+      <selection pane="topRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="29" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,61 +596,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -668,18 +662,18 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -691,21 +685,21 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -714,276 +708,276 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G10" s="7">
         <f>5*365.25</f>
         <v>1826.25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ref="G11:G23" si="0">5*365.25</f>
         <v>1826.25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>1826.25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>1826.25</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>1826.25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>1826.25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>1826.25</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -991,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -1000,14 +994,14 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>1826.25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -1015,7 +1009,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -1024,127 +1018,124 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>1826.25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>31</v>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>1826.25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="C20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>31</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>1826.25</v>
       </c>
-      <c r="H20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="F21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="11">
         <f t="shared" si="0"/>
         <v>1826.25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>1826.25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
@@ -1154,65 +1145,65 @@
         <v>1826.25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -1221,67 +1212,67 @@
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -1290,40 +1281,41 @@
         <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G30" s="8">
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I30" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I30" xr:uid="{EA196AF0-491D-7F42-B606-416672B8A93A}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1331,6 +1323,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004121B7B21A8E79498360E7D69C664CF8" ma:contentTypeVersion="6" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="50fa45a33d7dd66f36eed652322f7e85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1bb27bd4-d919-4cde-be8f-c8c01880f38f" xmlns:ns3="101111ff-a703-44f4-bedb-571a174d8990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1aa411700356cc8e21a865bb26eb38d3" ns2:_="" ns3:_="">
     <xsd:import namespace="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
@@ -1509,15 +1510,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1525,6 +1517,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1539,14 +1539,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uio.sharepoint.com/sites/MigrainedemonstrationprojectWP1.5.4/Delte dokumenter/General/4_Codelists (D3, Variables, DAP specific, D4)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A95607A6-FBB4-4BFE-A2B1-693C91694F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20B75AF-FED2-EF49-9FCC-A0319B03ED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>20180301</t>
   </si>
   <si>
-    <t>UIO</t>
-  </si>
-  <si>
     <t>FISABIO</t>
   </si>
   <si>
@@ -147,13 +144,16 @@
   </si>
   <si>
     <t>20040101</t>
+  </si>
+  <si>
+    <t>UOSL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -526,22 +526,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I21" sqref="I21"/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -621,7 +621,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -645,7 +645,7 @@
         <v>365.25</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -669,12 +669,12 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -693,33 +693,33 @@
         <v>365.25</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>365.25</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -740,12 +740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -765,9 +765,9 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
@@ -789,9 +789,9 @@
         <v>365.25</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>16</v>
@@ -803,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
@@ -813,9 +813,9 @@
         <v>365.25</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -836,33 +836,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>365.25</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -884,9 +884,9 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>21</v>
@@ -908,9 +908,9 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>19</v>
@@ -932,12 +932,12 @@
         <v>365.25</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -956,9 +956,9 @@
         <v>365.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>16</v>
@@ -980,39 +980,39 @@
         <v>365.25</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="2"/>
         <v>365.25</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -1027,9 +1027,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
@@ -1050,9 +1050,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
@@ -1074,12 +1074,12 @@
         <v>365.25</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
@@ -1098,33 +1098,33 @@
         <v>365.25</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="3"/>
         <v>365.25</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>16</v>
@@ -1159,21 +1159,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004121B7B21A8E79498360E7D69C664CF8" ma:contentTypeVersion="6" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="50fa45a33d7dd66f36eed652322f7e85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1bb27bd4-d919-4cde-be8f-c8c01880f38f" xmlns:ns3="101111ff-a703-44f4-bedb-571a174d8990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1aa411700356cc8e21a865bb26eb38d3" ns2:_="" ns3:_="">
     <xsd:import namespace="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
@@ -1352,14 +1337,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
+    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20B75AF-FED2-EF49-9FCC-A0319B03ED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC078508-7E52-4647-B91B-2B8307EEF121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$25</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="37">
   <si>
     <t>Study</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>UOSL</t>
+  </si>
+  <si>
+    <t>after_delivery</t>
   </si>
 </sst>
 </file>
@@ -522,11 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA196AF0-491D-7F42-B606-416672B8A93A}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,11 +540,12 @@
     <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,17 +567,20 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -595,8 +602,11 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -619,9 +629,12 @@
         <f>1*365.25</f>
         <v>365.25</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2">
+        <v>90.75</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -644,8 +657,11 @@
         <f>1*365.25</f>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="2">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -667,9 +683,12 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="2">
+        <v>90.75</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -692,8 +711,11 @@
         <f t="shared" ref="G6:G13" si="0">1*365.25</f>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -716,8 +738,11 @@
         <f t="shared" si="0"/>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -737,10 +762,13 @@
         <v>15</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90.75</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -763,9 +791,12 @@
         <f t="shared" si="0"/>
         <v>365.25</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -788,8 +819,11 @@
         <f t="shared" si="0"/>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -812,8 +846,11 @@
         <f t="shared" si="0"/>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -835,8 +872,11 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -859,8 +899,11 @@
         <f t="shared" si="0"/>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -882,9 +925,12 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -906,9 +952,12 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -931,8 +980,11 @@
         <f t="shared" ref="G16" si="1">1*365.25</f>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -955,8 +1007,11 @@
         <f>1*365.25</f>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -979,8 +1034,11 @@
         <f t="shared" ref="G18:G19" si="2">1*365.25</f>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1003,8 +1061,11 @@
         <f t="shared" si="2"/>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1026,8 +1087,11 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1049,8 +1113,11 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1073,8 +1140,11 @@
         <f t="shared" ref="G22:G25" si="3">1*365.25</f>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1097,8 +1167,11 @@
         <f t="shared" si="3"/>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1121,8 +1194,11 @@
         <f t="shared" si="3"/>
         <v>365.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1145,10 +1221,13 @@
         <f t="shared" si="3"/>
         <v>365.25</v>
       </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J25" xr:uid="{EA196AF0-491D-7F42-B606-416672B8A93A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
+  <autoFilter ref="A1:K25" xr:uid="{EA196AF0-491D-7F42-B606-416672B8A93A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K25">
       <sortCondition ref="A1:A25"/>
     </sortState>
   </autoFilter>
@@ -1338,18 +1417,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1372,18 +1451,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uio.sharepoint.com/sites/MigrainedemonstrationprojectWP1.5.4/Delte dokumenter/General/4_Codelists (D3, Variables, DAP specific, D4)/Study_dates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{B9FFB3F2-20EC-4355-9259-447D825B16F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{743F678D-5CDF-4D17-9316-6D7538A03194}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993D1610-573A-3140-A62C-6A6D1C11E7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="28800" windowHeight="16320" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,15 +68,9 @@
     <t>comments</t>
   </si>
   <si>
-    <t>comment end date update</t>
-  </si>
-  <si>
     <t>Drug_utilisation</t>
   </si>
   <si>
-    <t>EFFEMERIS</t>
-  </si>
-  <si>
     <t>20201231</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t>20180301</t>
   </si>
   <si>
-    <t>UIO</t>
-  </si>
-  <si>
     <t>FISABIO</t>
   </si>
   <si>
@@ -123,6 +114,15 @@
   </si>
   <si>
     <t>Safety</t>
+  </si>
+  <si>
+    <t>after_delivery</t>
+  </si>
+  <si>
+    <t>CHUT</t>
+  </si>
+  <si>
+    <t>UOSL</t>
   </si>
 </sst>
 </file>
@@ -182,8 +182,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,22 +502,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <selection pane="topRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,590 +536,642 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>365.25</v>
+      </c>
+      <c r="H3">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>365.25</v>
+      </c>
+      <c r="H4">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>90.75</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>365.25</v>
+      </c>
+      <c r="H6">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>365.25</v>
+      </c>
+      <c r="H7">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>90.75</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>365.25</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>365.25</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>365.25</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>365.25</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2">
-        <f>1*365.25</f>
-        <v>365.25</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>365.25</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>365.25</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>365.25</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>365.25</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>365.25</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>365.25</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>365.25</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2">
-        <f>1*365.25</f>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" ref="G6:G13" si="0">1*365.25</f>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>365.25</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" ref="G16" si="1">1*365.25</f>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2">
-        <f>1*365.25</f>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" ref="G18:G19" si="2">1*365.25</f>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="2"/>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" ref="G22:G25" si="3">1*365.25</f>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="3"/>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="3"/>
-        <v>365.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="3"/>
-        <v>365.25</v>
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>365.25</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1135,21 +1187,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004121B7B21A8E79498360E7D69C664CF8" ma:contentTypeVersion="6" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="50fa45a33d7dd66f36eed652322f7e85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1bb27bd4-d919-4cde-be8f-c8c01880f38f" xmlns:ns3="101111ff-a703-44f4-bedb-571a174d8990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1aa411700356cc8e21a865bb26eb38d3" ns2:_="" ns3:_="">
     <xsd:import namespace="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
@@ -1328,10 +1365,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
+    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1354,20 +1417,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
-    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993D1610-573A-3140-A62C-6A6D1C11E7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E92283F-5E79-8641-9F5F-07168FB51A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1300" windowWidth="28800" windowHeight="16320" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
+    <workbookView xWindow="460" yWindow="2040" windowWidth="28800" windowHeight="16320" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,18 +80,9 @@
     <t>20200301</t>
   </si>
   <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>UNIFE</t>
-  </si>
-  <si>
     <t>20090101</t>
   </si>
   <si>
-    <t>THL</t>
-  </si>
-  <si>
     <t>20181231</t>
   </si>
   <si>
@@ -123,6 +114,15 @@
   </si>
   <si>
     <t>UOSL</t>
+  </si>
+  <si>
+    <t>USWAN</t>
+  </si>
+  <si>
+    <t>NIHW</t>
+  </si>
+  <si>
+    <t>FERR</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I20" sqref="I20"/>
+      <selection pane="topRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -563,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -580,7 +580,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -606,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -615,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -632,19 +632,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -685,16 +685,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -708,10 +708,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -746,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -772,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -798,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
@@ -812,22 +812,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -838,19 +838,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
@@ -864,11 +864,11 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
@@ -876,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -890,22 +890,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -928,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
@@ -968,10 +968,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -980,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -994,19 +994,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1032,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1046,22 +1046,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
@@ -1098,11 +1098,11 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -1124,19 +1124,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
@@ -1162,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>12</v>
@@ -1187,6 +1187,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004121B7B21A8E79498360E7D69C664CF8" ma:contentTypeVersion="6" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="50fa45a33d7dd66f36eed652322f7e85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1bb27bd4-d919-4cde-be8f-c8c01880f38f" xmlns:ns3="101111ff-a703-44f4-bedb-571a174d8990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1aa411700356cc8e21a865bb26eb38d3" ns2:_="" ns3:_="">
     <xsd:import namespace="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
@@ -1365,36 +1380,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
-    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1417,9 +1406,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
+    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E92283F-5E79-8641-9F5F-07168FB51A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7BB426-AE33-BE43-8B7F-39B51918E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="2040" windowWidth="28800" windowHeight="16320" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16320" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+      <selection pane="topRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>90.75</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>365.25</v>
       </c>
       <c r="H5">
         <v>90.75</v>
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>365.25</v>
       </c>
       <c r="H12">
         <v>7</v>
@@ -882,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>90.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>15</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>365.25</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>12</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>90.75</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>365.25</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1187,21 +1187,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004121B7B21A8E79498360E7D69C664CF8" ma:contentTypeVersion="6" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="50fa45a33d7dd66f36eed652322f7e85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1bb27bd4-d919-4cde-be8f-c8c01880f38f" xmlns:ns3="101111ff-a703-44f4-bedb-571a174d8990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1aa411700356cc8e21a865bb26eb38d3" ns2:_="" ns3:_="">
     <xsd:import namespace="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
@@ -1380,10 +1365,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
+    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1406,20 +1417,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
-    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7BB426-AE33-BE43-8B7F-39B51918E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9144E87-F05C-C040-83EF-50B25551D82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16320" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
@@ -119,10 +119,10 @@
     <t>USWAN</t>
   </si>
   <si>
-    <t>NIHW</t>
-  </si>
-  <si>
     <t>FERR</t>
+  </si>
+  <si>
+    <t>THL</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B25" sqref="B25"/>
+      <selection pane="topRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -632,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -763,7 +763,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -815,7 +815,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -893,7 +893,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -919,7 +919,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1049,7 +1049,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1075,7 +1075,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1187,6 +1187,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004121B7B21A8E79498360E7D69C664CF8" ma:contentTypeVersion="6" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="50fa45a33d7dd66f36eed652322f7e85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1bb27bd4-d919-4cde-be8f-c8c01880f38f" xmlns:ns3="101111ff-a703-44f4-bedb-571a174d8990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1aa411700356cc8e21a865bb26eb38d3" ns2:_="" ns3:_="">
     <xsd:import namespace="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
@@ -1365,36 +1380,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
-    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1417,9 +1406,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
+    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9144E87-F05C-C040-83EF-50B25551D82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9CEEF6-E490-7146-B5A9-B6CD326A560B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16320" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
@@ -178,12 +178,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B31" sqref="B31"/>
+      <selection pane="topRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,8 +569,8 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>90.75</v>
+      <c r="G2" s="5">
+        <v>75625</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -725,11 +726,11 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8">
-        <v>90.75</v>
+      <c r="G8" s="5">
+        <v>75625</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -881,8 +882,8 @@
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14">
-        <v>90.75</v>
+      <c r="G14" s="5">
+        <v>75625</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1037,8 +1038,8 @@
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G20">
-        <v>90.75</v>
+      <c r="G20" s="5">
+        <v>75625</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1196,12 +1197,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004121B7B21A8E79498360E7D69C664CF8" ma:contentTypeVersion="6" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="50fa45a33d7dd66f36eed652322f7e85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1bb27bd4-d919-4cde-be8f-c8c01880f38f" xmlns:ns3="101111ff-a703-44f4-bedb-571a174d8990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1aa411700356cc8e21a865bb26eb38d3" ns2:_="" ns3:_="">
     <xsd:import namespace="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
@@ -1380,6 +1375,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
   <ds:schemaRefs>
@@ -1389,23 +1390,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{632FB4B3-1CB8-4DD1-B569-A6F2D6A09D9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1422,4 +1406,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9CEEF6-E490-7146-B5A9-B6CD326A560B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D4E5D4-CB6A-214F-913E-468C74EC4F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16320" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,13 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,26 +501,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+      <selection pane="topRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
     <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1"/>
+    <col min="9" max="9" width="24.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -537,13 +537,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
@@ -551,7 +551,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -569,15 +569,15 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5">
-        <v>75625</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="1">
+        <v>75.625</v>
+      </c>
+      <c r="H2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -595,15 +595,15 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>365.25</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H3" s="1">
         <v>90.75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -621,15 +621,15 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
-        <v>365.25</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H4" s="1">
         <v>90.75</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -647,16 +647,16 @@
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5">
-        <v>365.25</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H5" s="1">
         <v>90.75</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -674,15 +674,15 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6">
-        <v>365.25</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H6" s="1">
         <v>90.75</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -700,15 +700,15 @@
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7">
-        <v>365.25</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H7" s="1">
         <v>90.75</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -726,15 +726,15 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5">
-        <v>75625</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="1">
+        <v>75.625</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -752,15 +752,15 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9">
-        <v>365.25</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H9" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -778,15 +778,15 @@
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10">
-        <v>365.25</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H10" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -804,15 +804,15 @@
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11">
-        <v>365.25</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H11" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -830,15 +830,15 @@
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G12">
-        <v>365.25</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H12" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -856,15 +856,15 @@
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13">
-        <v>365.25</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H13" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -882,15 +882,15 @@
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5">
-        <v>75625</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="1">
+        <v>75.625</v>
+      </c>
+      <c r="H14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -908,15 +908,15 @@
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G15">
-        <v>365.25</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -934,15 +934,15 @@
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G16">
-        <v>365.25</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -960,15 +960,15 @@
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17">
-        <v>365.25</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -986,15 +986,15 @@
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18">
-        <v>365.25</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1012,15 +1012,15 @@
       <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19">
-        <v>365.25</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1038,15 +1038,15 @@
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="5">
-        <v>75625</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="1">
+        <v>75.625</v>
+      </c>
+      <c r="H20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1064,15 +1064,15 @@
       <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G21">
-        <v>365.25</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1090,15 +1090,15 @@
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22">
-        <v>365.25</v>
-      </c>
-      <c r="H22">
+      <c r="G22" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1116,15 +1116,15 @@
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G23">
-        <v>365.25</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1142,15 +1142,15 @@
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G24">
-        <v>365.25</v>
-      </c>
-      <c r="H24">
+      <c r="G24" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1168,10 +1168,10 @@
       <c r="F25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G25">
-        <v>365.25</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="1">
+        <v>365.25</v>
+      </c>
+      <c r="H25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1188,12 +1188,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1376,15 +1373,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1409,18 +1418,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/DP4_Migraine_GitHub/Demonstration project/DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D4E5D4-CB6A-214F-913E-468C74EC4F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68865C9-1745-EA46-AF3B-E75645E2358C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <t>FERR</t>
   </si>
   <si>
-    <t>THL</t>
+    <t>NIHW</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J18" sqref="J18"/>
+      <selection pane="topRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1188,9 +1188,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1373,27 +1376,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1418,9 +1409,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/p_steps/parameters/study_dates.xlsx
+++ b/p_steps/parameters/study_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhoxhaj/Desktop/Repositories/DP4_Github/Demonstration project/ConcePTION-DP4_Migraine/p_steps/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D48613A-768D-2B48-8217-14ADD207D3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5919907-588F-944C-803B-6AD523767266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16600" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="29080" windowHeight="16920" xr2:uid="{52957A4A-17C1-3F45-8252-919372C3F876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,10 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I24" sqref="I24"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +482,7 @@
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1"/>
     <col min="9" max="9" width="24.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
@@ -506,7 +507,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -538,8 +539,9 @@
       <c r="F2">
         <v>20200301</v>
       </c>
-      <c r="G2">
-        <v>75.625</v>
+      <c r="G2" s="3">
+        <f>3*30.4375-14</f>
+        <v>77.3125</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -565,7 +567,7 @@
       <c r="F3">
         <v>20191231</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>365.25</v>
       </c>
       <c r="H3">
@@ -592,7 +594,7 @@
       <c r="F4">
         <v>20191231</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>365.25</v>
       </c>
       <c r="H4">
@@ -619,7 +621,7 @@
       <c r="F5">
         <v>20171231</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>365.25</v>
       </c>
       <c r="H5">
@@ -647,7 +649,7 @@
       <c r="F6">
         <v>20191231</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>365.25</v>
       </c>
       <c r="H6">
@@ -674,7 +676,7 @@
       <c r="F7">
         <v>20181231</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>365.25</v>
       </c>
       <c r="H7">
@@ -701,8 +703,9 @@
       <c r="F8">
         <v>20200301</v>
       </c>
-      <c r="G8">
-        <v>75.625</v>
+      <c r="G8" s="3">
+        <f>3*30.4375-14</f>
+        <v>77.3125</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -728,7 +731,7 @@
       <c r="F9">
         <v>20200301</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>365.25</v>
       </c>
       <c r="H9">
@@ -755,7 +758,7 @@
       <c r="F10">
         <v>20200301</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>365.25</v>
       </c>
       <c r="H10">
@@ -782,7 +785,7 @@
       <c r="F11">
         <v>20200301</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>365.25</v>
       </c>
       <c r="H11">
@@ -809,7 +812,7 @@
       <c r="F12">
         <v>20180301</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>365.25</v>
       </c>
       <c r="H12">
@@ -836,7 +839,7 @@
       <c r="F13">
         <v>20190301</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>365.25</v>
       </c>
       <c r="H13">
@@ -863,8 +866,9 @@
       <c r="F14">
         <v>20200301</v>
       </c>
-      <c r="G14">
-        <v>75.625</v>
+      <c r="G14" s="3">
+        <f>3*30.4375-14</f>
+        <v>77.3125</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -890,7 +894,7 @@
       <c r="F15">
         <v>20180301</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>365.25</v>
       </c>
       <c r="H15">
@@ -917,7 +921,7 @@
       <c r="F16">
         <v>20200301</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>365.25</v>
       </c>
       <c r="H16">
@@ -944,7 +948,7 @@
       <c r="F17">
         <v>20200301</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>365.25</v>
       </c>
       <c r="H17">
@@ -971,7 +975,7 @@
       <c r="F18">
         <v>20200301</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>365.25</v>
       </c>
       <c r="H18">
@@ -998,7 +1002,7 @@
       <c r="F19">
         <v>20190301</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>365.25</v>
       </c>
       <c r="H19">
@@ -1025,8 +1029,9 @@
       <c r="F20">
         <v>20200301</v>
       </c>
-      <c r="G20">
-        <v>75.625</v>
+      <c r="G20" s="3">
+        <f>3*30.4375-14</f>
+        <v>77.3125</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1052,7 +1057,7 @@
       <c r="F21">
         <v>20180301</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>365.25</v>
       </c>
       <c r="H21">
@@ -1079,7 +1084,7 @@
       <c r="F22">
         <v>20200301</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>365.25</v>
       </c>
       <c r="H22">
@@ -1106,7 +1111,7 @@
       <c r="F23">
         <v>20200301</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>365.25</v>
       </c>
       <c r="H23">
@@ -1133,7 +1138,7 @@
       <c r="F24">
         <v>20190301</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>365.25</v>
       </c>
       <c r="H24">
@@ -1154,9 +1159,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1339,27 +1347,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1384,9 +1380,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEF50071-A32A-4A21-9871-71238A273BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAB86A5-2864-4B66-A044-D0381A201D5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1bb27bd4-d919-4cde-be8f-c8c01880f38f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="101111ff-a703-44f4-bedb-571a174d8990"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>